--- a/Foreløbig tidsplan_1.1.xlsx
+++ b/Foreløbig tidsplan_1.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Fase/uge</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>X10 design</t>
+  </si>
+  <si>
+    <t>Version 1.1</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +468,14 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1085,8 +1096,9 @@
       <c r="U26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
